--- a/biology/Botanique/Geum_pyrenaicum/Geum_pyrenaicum.xlsx
+++ b/biology/Botanique/Geum_pyrenaicum/Geum_pyrenaicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La benoîte des Pyrénées Écouter ou benoite des Pyrénées (Geum pyrenaicum Mill, 1768) est une espèce du genre Geum et de la famille des Rosaceae. Elle est endémique des Pyrénées et de la cordillère Cantabrique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La benoîte des Pyrénées Écouter ou benoite des Pyrénées (Geum pyrenaicum Mill, 1768) est une espèce du genre Geum et de la famille des Rosaceae. Elle est endémique des Pyrénées et de la cordillère Cantabrique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée vivace n'excédant pas les 40 cm de hauteur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée vivace n'excédant pas les 40 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,19 +556,21 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Organes reproducteurs[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-août
 Inflorescence : cyme unipare hélicoïde.
 Sexualité : hermaphrodite
 Ordre de maturation : ?
 Pollinisation : entomogame
-Graine[2]
+Graine
 Fruit : akène
 Dissémination : épizoochore
-Habitat et répartition[1],[2]
+Habitat et répartition,
 Étage : haut de l'étage montagnard, étage subalpin, jusqu'au bas de l'étage alpin
 Habitat type : pelouses rocailleuses, couloirs herbeux dans les roches calcaires
 Aire de répartition : orophyte pyrénéen et cantabrien</t>
